--- a/doc/mpqs処理速度.xlsx
+++ b/doc/mpqs処理速度.xlsx
@@ -619,7 +619,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -684,7 +684,7 @@
         <v>0.109</v>
       </c>
       <c r="G2" s="7">
-        <v>7.8E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>27</v>
@@ -713,7 +713,7 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="G3" s="7">
-        <v>0.436</v>
+        <v>0.374</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>6</v>
@@ -742,7 +742,7 @@
         <v>3.6190000000000002</v>
       </c>
       <c r="G4" s="7">
-        <v>2.823</v>
+        <v>2.5430000000000001</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
@@ -771,7 +771,7 @@
         <v>40.591000000000001</v>
       </c>
       <c r="G5" s="7">
-        <v>7.55</v>
+        <v>7.1139999999999999</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>15</v>
@@ -798,7 +798,7 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7">
-        <v>193.41</v>
+        <v>182.34899999999999</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>20</v>

--- a/doc/mpqs処理速度.xlsx
+++ b/doc/mpqs処理速度.xlsx
@@ -619,7 +619,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -713,7 +713,7 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="G3" s="7">
-        <v>0.374</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>6</v>
@@ -742,7 +742,7 @@
         <v>3.6190000000000002</v>
       </c>
       <c r="G4" s="7">
-        <v>2.5430000000000001</v>
+        <v>2.262</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
@@ -771,7 +771,7 @@
         <v>40.591000000000001</v>
       </c>
       <c r="G5" s="7">
-        <v>7.1139999999999999</v>
+        <v>4.9610000000000003</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>15</v>
@@ -798,7 +798,7 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7">
-        <v>182.34899999999999</v>
+        <v>153.34899999999999</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>20</v>

--- a/doc/mpqs処理速度.xlsx
+++ b/doc/mpqs処理速度.xlsx
@@ -619,7 +619,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -713,7 +713,7 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="G3" s="7">
-        <v>0.32800000000000001</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>6</v>
@@ -742,7 +742,7 @@
         <v>3.6190000000000002</v>
       </c>
       <c r="G4" s="7">
-        <v>2.262</v>
+        <v>1.762</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
@@ -798,7 +798,7 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7">
-        <v>153.34899999999999</v>
+        <v>131.446</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>20</v>

--- a/doc/mpqs処理速度.xlsx
+++ b/doc/mpqs処理速度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>NZMATH</t>
     <phoneticPr fontId="1"/>
@@ -225,6 +225,10 @@
   </si>
   <si>
     <t>Abst mpqs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17*17</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -616,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -742,7 +746,7 @@
         <v>3.6190000000000002</v>
       </c>
       <c r="G4" s="7">
-        <v>1.762</v>
+        <v>1.732</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
@@ -771,7 +775,7 @@
         <v>40.591000000000001</v>
       </c>
       <c r="G5" s="7">
-        <v>4.9610000000000003</v>
+        <v>4.851</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>15</v>
@@ -782,65 +786,55 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2.9790000000000001</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1827.39</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7">
-        <v>131.446</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>24.46</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
-        <v>17.574000000000002</v>
+        <v>2.9790000000000001</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
+      <c r="E7" s="1">
+        <v>1827.39</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>131.119</v>
+      </c>
       <c r="H7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1">
-        <v>47.843000000000004</v>
+        <v>17.574000000000002</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>25</v>
@@ -851,21 +845,21 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C9" s="1">
-        <v>100.535</v>
+        <v>47.843000000000004</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>25</v>
@@ -876,21 +870,21 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="1">
-        <v>385.435</v>
+        <v>100.535</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>25</v>
@@ -900,22 +894,22 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="2" t="s">
-        <v>42</v>
+      <c r="H10" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="1">
-        <v>889.44600000000003</v>
+        <v>385.435</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
@@ -925,15 +919,40 @@
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="1" t="s">
-        <v>25</v>
+      <c r="H11" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1">
+        <v>889.44600000000003</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="6"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/doc/mpqs処理速度.xlsx
+++ b/doc/mpqs処理速度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>NZMATH</t>
     <phoneticPr fontId="1"/>
@@ -195,13 +195,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NZMATH(p-1無)</t>
-    <rPh sb="10" eb="11">
-      <t>ナシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[794237099861474750557364847081604565377557765336257745380042669, 248455073074973566617949403677518809850845564605415173242596173183, 53140593069065255691542076143833265161342583045252356250678427989, 197946016538478740429682373903447209746236021175623801130109801971, 383023771337982753047733096982352833424566147981481073859627964387, 641813836224972088616678841952760521569442198473049808568581902333, 369735860390921982119940932326447572764239740022514572991785969741, 138505979985424585894408939543665167143938983773184340101955310619, 155383274591071231631001771573800702760031589993824405567730349317, 635242376802490656402637359420729183314647771498774240911689272259]</t>
   </si>
   <si>
@@ -229,6 +222,10 @@
   </si>
   <si>
     <t>17*17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JRuby ANT</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -620,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -632,14 +629,15 @@
     <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
@@ -653,22 +651,25 @@
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="H1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -690,14 +691,15 @@
       <c r="G2" s="7">
         <v>4.7E-2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -719,14 +721,15 @@
       <c r="G3" s="7">
         <v>0.28100000000000003</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -748,14 +751,15 @@
       <c r="G4" s="7">
         <v>1.732</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -777,16 +781,17 @@
       <c r="G5" s="7">
         <v>4.851</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
@@ -796,10 +801,13 @@
       <c r="G6" s="7">
         <v>24.46</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H6" s="7">
+        <v>7.0629999999999997</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -819,14 +827,17 @@
       <c r="G7" s="7">
         <v>131.119</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="7">
+        <v>30.917000000000002</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -844,14 +855,15 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -869,14 +881,15 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -894,16 +907,17 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>25</v>
@@ -919,16 +933,17 @@
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H11" s="7"/>
+      <c r="I11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -944,14 +959,15 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="H12" s="7"/>
       <c r="I12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
     </row>
   </sheetData>

--- a/doc/mpqs処理速度.xlsx
+++ b/doc/mpqs処理速度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>NZMATH</t>
     <phoneticPr fontId="1"/>
@@ -226,6 +226,17 @@
   </si>
   <si>
     <t>JRuby ANT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JRuby single</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -617,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -632,12 +643,13 @@
     <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
+    <col min="9" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
@@ -660,16 +672,22 @@
         <v>45</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -692,14 +710,16 @@
         <v>4.7E-2</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -722,14 +742,16 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="H3" s="7"/>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -752,14 +774,16 @@
         <v>1.732</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -782,14 +806,18 @@
         <v>4.851</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="7">
+        <v>3.6240000000000001</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -799,15 +827,21 @@
       <c r="E6" s="1"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7">
-        <v>24.46</v>
+        <v>23.83</v>
       </c>
       <c r="H6" s="7">
+        <v>15.77</v>
+      </c>
+      <c r="I6" s="7">
         <v>7.0629999999999997</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J6" s="7">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -827,17 +861,21 @@
       <c r="G7" s="7">
         <v>131.119</v>
       </c>
-      <c r="H7" s="7">
-        <v>30.917000000000002</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7">
+        <v>26.713999999999999</v>
+      </c>
+      <c r="J7" s="7">
+        <v>26</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -856,14 +894,16 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -882,14 +922,16 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -908,14 +950,16 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -934,14 +978,16 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -960,14 +1006,16 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
     </row>
   </sheetData>
